--- a/Excel-Output-Data/Output Data.xlsx
+++ b/Excel-Output-Data/Output Data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="211">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -625,6 +625,51 @@
   </si>
   <si>
     <t>Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 1 more</t>
+  </si>
+  <si>
+    <t>Dr. Girish Rao</t>
+  </si>
+  <si>
+    <t>Jayanagar,Bangalore  Sagar Hospitals</t>
+  </si>
+  <si>
+    <t>99% 201 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mir Sujath Ali</t>
+  </si>
+  <si>
+    <t>23 years experience overall</t>
+  </si>
+  <si>
+    <t>98% 190 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Suresh S</t>
+  </si>
+  <si>
+    <t>JP Nagar 7 Phase,Bangalore  Smiles Smith Advanced Dental Care + 1 more</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Kaul</t>
+  </si>
+  <si>
+    <t>Koramangala,Bangalore  V-Care Dental Speciality Clinic + 1 more</t>
+  </si>
+  <si>
+    <t>92% 147 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mukta Shrivastava</t>
+  </si>
+  <si>
+    <t>Millers Road,Bangalore  Manipal Hospital, Millers Road + 2 more</t>
+  </si>
+  <si>
+    <t>Saket,Delhi  Max Smart Superspeciality Hospital + 1 more</t>
+  </si>
+  <si>
+    <t>Saket,Delhi  Max Smart Superspeciality Hospital + 3 more</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>139</v>
@@ -1108,18 +1153,18 @@
         <v>140</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>139</v>
@@ -1128,13 +1173,13 @@
         <v>140</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -1148,10 +1193,10 @@
         <v>148</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>151</v>
@@ -1256,22 +1301,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>95</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excel-Output-Data/Output Data.xlsx
+++ b/Excel-Output-Data/Output Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Output-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BAA870-AB1D-4A18-99AF-A3BF5FBC2EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A27E4E-47A8-4E57-8F8D-F69D9EB5CAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B9BF4782-6501-43CF-B311-9578EEF3C352}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9BF4782-6501-43CF-B311-9578EEF3C352}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="277">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -78,432 +78,699 @@
     <t>98%1249 Patient Stories</t>
   </si>
   <si>
-    <t>Dr. Satish M S</t>
+    <t>Dr. K.A. Mohan</t>
   </si>
   <si>
     <t>Dentist</t>
   </si>
   <si>
+    <t>55 years experience overall</t>
+  </si>
+  <si>
+    <t>Domlur,Bangalore  Dental De Care</t>
+  </si>
+  <si>
+    <t>₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>96% 33 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Rao</t>
+  </si>
+  <si>
+    <t>28 years experience overall</t>
+  </si>
+  <si>
+    <t>Vijayanagar,Bangalore  Smile Dental Care</t>
+  </si>
+  <si>
+    <t>98% 212 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shyam Padmanabhan</t>
+  </si>
+  <si>
+    <t>New Thippasandra,Bangalore  Vignesh Dental Speciality Centre + 1 more</t>
+  </si>
+  <si>
+    <t>99% 253 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vivekananda Reddy</t>
+  </si>
+  <si>
+    <t>23 years experience overall</t>
+  </si>
+  <si>
+    <t>Hoodi,Bangalore  Smile Craft Dental and Implant Centre</t>
+  </si>
+  <si>
+    <t>98% 286 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Aditi Garg</t>
+  </si>
+  <si>
+    <t>17 years experience overall</t>
+  </si>
+  <si>
+    <t>HSR Layout,Bangalore  Elite Esthetics and Dental Clinic</t>
+  </si>
+  <si>
+    <t>99% 47 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Priya Bansal</t>
+  </si>
+  <si>
+    <t>18 years experience overall</t>
+  </si>
+  <si>
+    <t>Koramangala,Bangalore  Priya Dental Clinic</t>
+  </si>
+  <si>
+    <t>99% 200 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jonathan Eric Rao</t>
+  </si>
+  <si>
+    <t>16 years experience overall</t>
+  </si>
+  <si>
+    <t>Horamavu,Bangalore  Urban Dental Clinic</t>
+  </si>
+  <si>
+    <t>98% 130 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. A. Praveen Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Whitefield,Bangalore  Smaya's Dento Care</t>
+  </si>
+  <si>
+    <t>98% 32 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sainath N.K.</t>
+  </si>
+  <si>
+    <t>Sarjapur Road,Bangalore  Ittina Wellness - Dental Clinic &amp; Implant Centre</t>
+  </si>
+  <si>
+    <t>100% 172 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Prabhu Dev P</t>
+  </si>
+  <si>
+    <t>97% 87 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Navin Sakhuja</t>
+  </si>
+  <si>
+    <t>Ophthalmologist</t>
+  </si>
+  <si>
+    <t>38 years experience overall</t>
+  </si>
+  <si>
+    <t>Panchsheel Park,Delhi  Dr. Navin Sakhuja Eye clinic</t>
+  </si>
+  <si>
+    <t>₹2000 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>99% 34 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Tyag Murti Sharma</t>
+  </si>
+  <si>
+    <t>36 years experience overall</t>
+  </si>
+  <si>
+    <t>Janakpuri,Delhi  I-Create Hospital</t>
+  </si>
+  <si>
+    <t>₹1200 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>99% 128 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vishal Grover</t>
+  </si>
+  <si>
+    <t>34 years experience overall</t>
+  </si>
+  <si>
+    <t>Greater Kailash Part 2,Delhi  Netrayatan Dr. Grovers Centre For Eye Care &amp; Infertility</t>
+  </si>
+  <si>
+    <t>97% 522 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sanjiv Gupta</t>
+  </si>
+  <si>
+    <t>30 years experience overall</t>
+  </si>
+  <si>
+    <t>Safdarjung Development Area,Delhi  I Care Centre</t>
+  </si>
+  <si>
+    <t>₹1000 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>94% 65 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sonika Gupta</t>
+  </si>
+  <si>
+    <t>25 years experience overall</t>
+  </si>
+  <si>
+    <t>Saket,Delhi  Max Super Speciality Hospital - Saket East Wing + 1 more</t>
+  </si>
+  <si>
+    <t>97% 36 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Varshini Shanker</t>
+  </si>
+  <si>
+    <t>22 years experience overall</t>
+  </si>
+  <si>
+    <t>Neb Sarai,Delhi  ViVa Vision</t>
+  </si>
+  <si>
+    <t>97% 39 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rakesh Kumar</t>
+  </si>
+  <si>
+    <t>19 years experience overall</t>
+  </si>
+  <si>
+    <t>Saket,Delhi  Max Super Speciality Hospital - Saket East Wing + 3 more</t>
+  </si>
+  <si>
+    <t>97% 92 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Digvijay Singh</t>
+  </si>
+  <si>
+    <t>Malviya Nagar,Delhi  Rainbow Hospitals - Malviya Nagar + 1 more</t>
+  </si>
+  <si>
+    <t>99% 145 Patient Stories</t>
+  </si>
+  <si>
+    <t>Arya Clinic</t>
+  </si>
+  <si>
+    <t>1 Ayurveda</t>
+  </si>
+  <si>
+    <t>28 years experience</t>
+  </si>
+  <si>
+    <t>Thane West</t>
+  </si>
+  <si>
+    <t>95%83 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Govind Lihinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ayurveda</t>
+  </si>
+  <si>
+    <t>11 years experience overall</t>
+  </si>
+  <si>
+    <t>Ghatkopar West,Mumbai  Ojas Herbal Ayurveda &amp; Panchakarma Center + 1 more</t>
+  </si>
+  <si>
+    <t>97% 30 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rajshree Chavan</t>
+  </si>
+  <si>
+    <t>15 years experience overall</t>
+  </si>
+  <si>
+    <t>Dadar East,Mumbai  Sahastram Ayurveda Panchkarma Center</t>
+  </si>
+  <si>
+    <t>₹600 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>97% 184 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Bhadra P. Vaidya</t>
+  </si>
+  <si>
+    <t>Goregaon West,Mumbai  Ayurvedic Dispensary</t>
+  </si>
+  <si>
+    <t>₹700 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>100% 15 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sunita Jonwal</t>
+  </si>
+  <si>
+    <t>Borivali West,Mumbai  Dr. Jonwal's NapAyurVeda Panchkarm &amp; Wellness</t>
+  </si>
+  <si>
+    <t>₹800 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>89% 133 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Arun Kumar</t>
+  </si>
+  <si>
+    <t>Dadar West,Mumbai  Kaya Kalp International Sex &amp; Health Clinics + 2 more</t>
+  </si>
+  <si>
+    <t>96% 537 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Amit Aroskar</t>
+  </si>
+  <si>
+    <t>Borivali West,Mumbai  Dr. Aroskar's Aamod Ayurvedic Wellness Clinic</t>
+  </si>
+  <si>
+    <t>100% 25 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jyoti R Jangale</t>
+  </si>
+  <si>
+    <t>Mulund West,Mumbai  Shree Clinic Ayurveda and Panchkarma Center</t>
+  </si>
+  <si>
+    <t>100% 61 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Hiral Bhatt</t>
+  </si>
+  <si>
+    <t>14 years experience overall</t>
+  </si>
+  <si>
+    <t>Andheri East,Mumbai  Ayurvedic Answers + 2 more</t>
+  </si>
+  <si>
+    <t>100% 26 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Kuldip Raj Kohli</t>
+  </si>
+  <si>
+    <t>42 years experience overall</t>
+  </si>
+  <si>
+    <t>Lower Parel,Mumbai  Kohli's Ayurveda And Panchakarma Centre</t>
+  </si>
+  <si>
+    <t>100% 542 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Erande</t>
+  </si>
+  <si>
+    <t>Dadar West,Mumbai  Dr. Erande's Vedsuman Men &amp; Women's Clinic + 2 more</t>
+  </si>
+  <si>
+    <t>98% 79 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Laxman Proctology Center</t>
+  </si>
+  <si>
+    <t>1 General Surgeon</t>
+  </si>
+  <si>
+    <t>23 years experience</t>
+  </si>
+  <si>
+    <t>Dadar</t>
+  </si>
+  <si>
+    <t>₹1200Consultation Fees</t>
+  </si>
+  <si>
+    <t>99%148 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jiten Chowdhry</t>
+  </si>
+  <si>
+    <t>General Surgeon</t>
+  </si>
+  <si>
+    <t>31 years experience overall</t>
+  </si>
+  <si>
+    <t>Bhandup West,Mumbai  Ruby Hospital - Venture Of Arogyam Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>95% 145 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Nitin A Jain</t>
+  </si>
+  <si>
+    <t>Powai,Mumbai  Accura Daignostics - Gastro Surgery Clinic + 2 more</t>
+  </si>
+  <si>
+    <t>86% 36 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Pravin Hanumant Shinde</t>
+  </si>
+  <si>
+    <t>21 years experience overall</t>
+  </si>
+  <si>
+    <t>Mahim,Mumbai  S L Raheja Fortis Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>₹1300 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>100% 32 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Dilip Rajpal</t>
+  </si>
+  <si>
+    <t>29 years experience overall</t>
+  </si>
+  <si>
+    <t>Chembur,Mumbai  Apollo Spectra Hospitals + 4 more</t>
+  </si>
+  <si>
+    <t>₹1500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>100% 135 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Simi Saksena</t>
+  </si>
+  <si>
+    <t>35 years experience overall</t>
+  </si>
+  <si>
+    <t>Andheri West,Mumbai  Panacea + 3 more</t>
+  </si>
+  <si>
+    <t>99% 68 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sambit Patnaik</t>
+  </si>
+  <si>
     <t>20 years experience overall</t>
   </si>
   <si>
-    <t>Hebbal,Bangalore  Aster CMI Hospital + 3 more</t>
+    <t xml:space="preserve">Chembur,Mumbai </t>
+  </si>
+  <si>
+    <t>Mumbai Piles Clinic + 6 more</t>
+  </si>
+  <si>
+    <t>97% 547 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rajasekhar</t>
+  </si>
+  <si>
+    <t>44 years experience overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP Nagar 2 Phase,Bangalore </t>
+  </si>
+  <si>
+    <t>Chirag Hospital</t>
+  </si>
+  <si>
+    <t>94% 183 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Parameshwara C M</t>
+  </si>
+  <si>
+    <t>Mathikere - BEL,Bangalore  Smiles Institute of Gastroenterology</t>
+  </si>
+  <si>
+    <t>97% 336 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Nanda Rajaneesh</t>
+  </si>
+  <si>
+    <t>Sarjapur Road,Bangalore  Nanda Oncology Clinic + 2 more</t>
+  </si>
+  <si>
+    <t>85% 115 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vijay C R Reddy</t>
+  </si>
+  <si>
+    <t>HSR Layout,Bangalore  Sai Thunga Hospitals + 2 more</t>
+  </si>
+  <si>
+    <t>93% 14 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Akhil K. Bhat</t>
+  </si>
+  <si>
+    <t>27 years experience overall</t>
+  </si>
+  <si>
+    <t>Koramangala 5 Block,Bangalore  Apollo Spectra Hospitals + 2 more</t>
+  </si>
+  <si>
+    <t>95% 14 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Kumar B Alur</t>
+  </si>
+  <si>
+    <t>26 years experience overall</t>
+  </si>
+  <si>
+    <t>Koramangala 5 Block,Bangalore  Apollo Medical Centre + 1 more</t>
+  </si>
+  <si>
+    <t>₹750 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>97% 44 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mahesh Chikkachannappa</t>
+  </si>
+  <si>
+    <t>Hebbal,Bangalore  Aster CMI Hospital</t>
   </si>
   <si>
     <t>₹1100 Consultation fee at clinic</t>
   </si>
   <si>
-    <t>97% 20 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Akanksha Sachdeva</t>
+    <t>89% 20 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Anil Kamath</t>
+  </si>
+  <si>
+    <t>Basavanagudi,Bangalore  Apollo Clinic + 7 more</t>
+  </si>
+  <si>
+    <t>94% 13 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Manjunath Haridas</t>
+  </si>
+  <si>
+    <t>24 years experience overall</t>
+  </si>
+  <si>
+    <t>Whitefield,Bangalore  Manipal Hospital Whitefield + 2 more</t>
+  </si>
+  <si>
+    <t>97% 202 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Manish Joshi</t>
+  </si>
+  <si>
+    <t>Dickenson Road,Bangalore  Dr. Digest Advanced Gastro And Cancer Care + 3 more</t>
+  </si>
+  <si>
+    <t>86% 25 Patient Stories</t>
+  </si>
+  <si>
+    <t>GastroIntestinal Surgeon</t>
+  </si>
+  <si>
+    <t>Dr. Ashwini Bansode</t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>Goregaon East,Mumbai  Healthspring Clinic</t>
+  </si>
+  <si>
+    <t>80% 31 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shrirang S Yadwadkar</t>
   </si>
   <si>
     <t>13 years experience overall</t>
   </si>
   <si>
-    <t>Indiranagar,Bangalore  Ridgetop Dental International pvt ltd + 1 more</t>
-  </si>
-  <si>
-    <t>₹1000 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>100% 54 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Dinesh Shetty</t>
-  </si>
-  <si>
-    <t>Millers Road,Bangalore  Manipal Hospital, Millers Road + 1 more</t>
-  </si>
-  <si>
-    <t>100% 53 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Narayan Babu</t>
-  </si>
-  <si>
-    <t>16 years experience overall</t>
-  </si>
-  <si>
-    <t>HSR Layout,Bangalore  Sunkris Dental Health Care and Implant Centre</t>
-  </si>
-  <si>
-    <t>₹800 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>99% 226 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Divya Puranik</t>
-  </si>
-  <si>
-    <t>15 years experience overall</t>
-  </si>
-  <si>
-    <t>BTM Layout 2nd Stage,Bangalore  Puranik's Dental Care</t>
-  </si>
-  <si>
-    <t>100% 12 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Abhilash Ravindranath</t>
-  </si>
-  <si>
-    <t>21 years experience overall</t>
-  </si>
-  <si>
-    <t>HSR Layout,Bangalore  Smiles N More Invisalign and Dental Implant Centre + 1 more</t>
-  </si>
-  <si>
-    <t>₹700 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>97% 912 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Nikhar Ravinder</t>
-  </si>
-  <si>
-    <t>22 years experience overall</t>
-  </si>
-  <si>
-    <t>Whitefield,Bangalore  Dentalign</t>
-  </si>
-  <si>
-    <t>99% 416 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Aditi Chandra</t>
-  </si>
-  <si>
-    <t>99% 230 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Akhilesh Sharma</t>
-  </si>
-  <si>
-    <t>Jayanagar 9 Block,Bangalore  Manipal Hospital + 4 more</t>
+    <t>Mulund West,Mumbai  Apex Hospitals + 2 more</t>
+  </si>
+  <si>
+    <t>100% 31 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rajanshu Tiwari</t>
+  </si>
+  <si>
+    <t>Chembur,Mumbai  Surya Hospitals + 2 more</t>
+  </si>
+  <si>
+    <t>93% 69 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shubhashree Patil</t>
+  </si>
+  <si>
+    <t>Diabetologist</t>
+  </si>
+  <si>
+    <t>Andheri East,Mumbai  Diabetes And Wellness Clinic</t>
+  </si>
+  <si>
+    <t>99% 262 Patient Stories</t>
+  </si>
+  <si>
+    <t>Laparoscopic Surgeon</t>
+  </si>
+  <si>
+    <t>Dr. Ajay Nimbalkar</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Khar West,Mumbai  Dermavenue Advanced Skin And Hair Clinic</t>
+  </si>
+  <si>
+    <t>95% 67 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Venkataramana</t>
+  </si>
+  <si>
+    <t>54 years experience overall</t>
+  </si>
+  <si>
+    <t>Electronics City,Bangalore  Practo Hospitals - Neo + 2 more</t>
+  </si>
+  <si>
+    <t>93% 108 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Ramesh Kumar R N</t>
+  </si>
+  <si>
+    <t>52 years experience overall</t>
+  </si>
+  <si>
+    <t>JP Nagar 7 Phase,Bangalore  Shanthi Clinic</t>
+  </si>
+  <si>
+    <t>₹400 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>83% 4 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. SS Kumar</t>
+  </si>
+  <si>
+    <t>Internal Medicine</t>
+  </si>
+  <si>
+    <t>50 years experience overall</t>
+  </si>
+  <si>
+    <t>Seshadripuram,Bangalore  Apollo Hospitals + 1 more</t>
+  </si>
+  <si>
+    <t>₹740 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>98% 64 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shivaji Rao C S</t>
+  </si>
+  <si>
+    <t>JP Nagar 7 Phase,Bangalore  Apollo Clinic</t>
+  </si>
+  <si>
+    <t>50% 5 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mohan Badagandi</t>
+  </si>
+  <si>
+    <t>49 years experience overall</t>
+  </si>
+  <si>
+    <t>Jayanagar 9 Block,Bangalore  Manipal Hospital + 1 more</t>
+  </si>
+  <si>
+    <t>91% 25 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. U Vasudeva Rao</t>
+  </si>
+  <si>
+    <t>Jayanagar 9 Block,Bangalore  Manipal Hospital + 2 more</t>
   </si>
   <si>
     <t>₹650 Consultation fee at clinic</t>
   </si>
   <si>
-    <t>92% 11 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Roma Haider</t>
-  </si>
-  <si>
-    <t>26 years experience overall</t>
-  </si>
-  <si>
-    <t>Koramangala 5 Block,Bangalore  Apollo Spectra Hospitals</t>
-  </si>
-  <si>
-    <t>₹600 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>98% 45 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Navin Sakhuja</t>
-  </si>
-  <si>
-    <t>Ophthalmologist</t>
-  </si>
-  <si>
-    <t>38 years experience overall</t>
-  </si>
-  <si>
-    <t>Panchsheel Park,Delhi  Dr. Navin Sakhuja Eye clinic</t>
-  </si>
-  <si>
-    <t>₹2000 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>99% 34 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Tyag Murti Sharma</t>
-  </si>
-  <si>
-    <t>36 years experience overall</t>
-  </si>
-  <si>
-    <t>Janakpuri,Delhi  I-Create Hospital</t>
-  </si>
-  <si>
-    <t>₹1200 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>99% 128 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Sanjay Dhawan</t>
-  </si>
-  <si>
-    <t>Saket,Delhi  Max Super Speciality Hospital - Saket East Wing + 2 more</t>
-  </si>
-  <si>
-    <t>96% 14 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Vishal Grover</t>
-  </si>
-  <si>
-    <t>34 years experience overall</t>
-  </si>
-  <si>
-    <t>Greater Kailash Part 2,Delhi  Netrayatan Dr. Grovers Centre For Eye Care &amp; Infertility</t>
-  </si>
-  <si>
-    <t>97% 522 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Sanjiv Gupta</t>
-  </si>
-  <si>
-    <t>30 years experience overall</t>
-  </si>
-  <si>
-    <t>Safdarjung Development Area,Delhi  I Care Centre</t>
-  </si>
-  <si>
-    <t>94% 65 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Sonika Gupta</t>
-  </si>
-  <si>
-    <t>25 years experience overall</t>
-  </si>
-  <si>
-    <t>Saket,Delhi  Max Super Speciality Hospital - Saket East Wing + 1 more</t>
-  </si>
-  <si>
-    <t>97% 36 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Varshini Shanker</t>
-  </si>
-  <si>
-    <t>Neb Sarai,Delhi  ViVa Vision</t>
-  </si>
-  <si>
-    <t>97% 39 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Rakesh Kumar</t>
-  </si>
-  <si>
-    <t>19 years experience overall</t>
-  </si>
-  <si>
-    <t>Saket,Delhi  Max Super Speciality Hospital - Saket East Wing + 3 more</t>
-  </si>
-  <si>
-    <t>97% 92 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Digvijay Singh</t>
-  </si>
-  <si>
-    <t>17 years experience overall</t>
-  </si>
-  <si>
-    <t>Malviya Nagar,Delhi  Rainbow Hospitals - Malviya Nagar + 1 more</t>
-  </si>
-  <si>
-    <t>99% 144 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. (Col) M. C. Sharma</t>
-  </si>
-  <si>
-    <t>Frazer Town,Bangalore  Colonel's Dental Spa</t>
-  </si>
-  <si>
-    <t>₹500 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>96% 425 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Sanjay Mohanchandra</t>
-  </si>
-  <si>
-    <t>JP Nagar 6 Phase,Bangalore  Ashirwad Dental Clinic</t>
-  </si>
-  <si>
-    <t>97% 132 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Raghunandana D Karantha</t>
-  </si>
-  <si>
-    <t>35 years experience overall</t>
-  </si>
-  <si>
-    <t>Vijayanagar,Bangalore  Sanjeevini Dental And Micro-Endodontic Clinic</t>
-  </si>
-  <si>
-    <t>99% 177 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Shaila Kumar</t>
-  </si>
-  <si>
-    <t>31 years experience overall</t>
-  </si>
-  <si>
-    <t>Whitefield,Bangalore  Smile Needs Dental Group</t>
-  </si>
-  <si>
-    <t>95% 199 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. P S Lakshmi</t>
-  </si>
-  <si>
-    <t>29 years experience overall</t>
-  </si>
-  <si>
-    <t>Bannerghatta Road,Bangalore  Perfect Smile</t>
-  </si>
-  <si>
-    <t>92% 638 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Sunil Rao</t>
-  </si>
-  <si>
-    <t>28 years experience overall</t>
-  </si>
-  <si>
-    <t>Vijayanagar,Bangalore  Smile Dental Care</t>
-  </si>
-  <si>
-    <t>98% 212 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Shyam Padmanabhan</t>
-  </si>
-  <si>
-    <t>New Thippasandra,Bangalore  Vignesh Dental Speciality Centre + 1 more</t>
-  </si>
-  <si>
-    <t>99% 253 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Priya Verma</t>
-  </si>
-  <si>
-    <t>Whitefield,Bangalore  Smile Zone Dental Speciality Centre</t>
-  </si>
-  <si>
-    <t>97% 268 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. T. Ramakrishna</t>
-  </si>
-  <si>
-    <t>Bellandur,Bangalore  Dental Profiles + 2 more</t>
-  </si>
-  <si>
-    <t>95% 389 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Ganesh Shetty</t>
-  </si>
-  <si>
-    <t>Kalyan Nagar,Bangalore  Dental and Orthodontic Clinic</t>
-  </si>
-  <si>
-    <t>98% 1002 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Venkataramana</t>
-  </si>
-  <si>
-    <t>General Physician</t>
-  </si>
-  <si>
-    <t>54 years experience overall</t>
-  </si>
-  <si>
-    <t>Electronics City,Bangalore  Practo Hospitals - Neo + 2 more</t>
-  </si>
-  <si>
-    <t>93% 108 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Ramesh Kumar R N</t>
-  </si>
-  <si>
-    <t>52 years experience overall</t>
-  </si>
-  <si>
-    <t>JP Nagar 7 Phase,Bangalore  Shanthi Clinic</t>
-  </si>
-  <si>
-    <t>₹400 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>83% 4 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. SS Kumar</t>
-  </si>
-  <si>
-    <t>Internal Medicine</t>
-  </si>
-  <si>
-    <t>50 years experience overall</t>
-  </si>
-  <si>
-    <t>Seshadripuram,Bangalore  Apollo Hospitals + 1 more</t>
-  </si>
-  <si>
-    <t>₹740 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>98% 64 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Shivaji Rao C S</t>
-  </si>
-  <si>
-    <t>JP Nagar 7 Phase,Bangalore  Apollo Clinic</t>
-  </si>
-  <si>
-    <t>50% 5 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Mohan Badagandi</t>
-  </si>
-  <si>
-    <t>49 years experience overall</t>
-  </si>
-  <si>
-    <t>Jayanagar 9 Block,Bangalore  Manipal Hospital + 1 more</t>
-  </si>
-  <si>
-    <t>₹750 Consultation fee at clinic</t>
-  </si>
-  <si>
-    <t>91% 25 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. U Vasudeva Rao</t>
-  </si>
-  <si>
-    <t>General Surgeon</t>
-  </si>
-  <si>
-    <t>Jayanagar 9 Block,Bangalore  Manipal Hospital + 2 more</t>
-  </si>
-  <si>
     <t>87%</t>
   </si>
   <si>
@@ -601,75 +868,6 @@
   </si>
   <si>
     <t>Surgery : Hair Transplant</t>
-  </si>
-  <si>
-    <t>Dr. Mridula Singh</t>
-  </si>
-  <si>
-    <t>HSR Layout,Bangalore  Avishi Dental World &amp; Multi-Speciality Clinic + 2 more</t>
-  </si>
-  <si>
-    <t>97% 721 Patient Stories</t>
-  </si>
-  <si>
-    <t>Jeevanbhimanagar,Bangalore  Vignesh Dental Speciality Center + 1 more</t>
-  </si>
-  <si>
-    <t>Dr. Rajesh Naik</t>
-  </si>
-  <si>
-    <t>Kalyan Nagar,Bangalore  Fresh Breath Dental Clinic + 1 more</t>
-  </si>
-  <si>
-    <t>98% 144 Patient Stories</t>
-  </si>
-  <si>
-    <t>Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 1 more</t>
-  </si>
-  <si>
-    <t>Dr. Girish Rao</t>
-  </si>
-  <si>
-    <t>Jayanagar,Bangalore  Sagar Hospitals</t>
-  </si>
-  <si>
-    <t>99% 201 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Mir Sujath Ali</t>
-  </si>
-  <si>
-    <t>23 years experience overall</t>
-  </si>
-  <si>
-    <t>98% 190 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Suresh S</t>
-  </si>
-  <si>
-    <t>JP Nagar 7 Phase,Bangalore  Smiles Smith Advanced Dental Care + 1 more</t>
-  </si>
-  <si>
-    <t>Dr. Sanjay Kaul</t>
-  </si>
-  <si>
-    <t>Koramangala,Bangalore  V-Care Dental Speciality Clinic + 1 more</t>
-  </si>
-  <si>
-    <t>92% 147 Patient Stories</t>
-  </si>
-  <si>
-    <t>Dr. Mukta Shrivastava</t>
-  </si>
-  <si>
-    <t>Millers Road,Bangalore  Manipal Hospital, Millers Road + 2 more</t>
-  </si>
-  <si>
-    <t>Saket,Delhi  Max Smart Superspeciality Hospital + 1 more</t>
-  </si>
-  <si>
-    <t>Saket,Delhi  Max Smart Superspeciality Hospital + 3 more</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B787D37B-64B4-45D4-BA60-FDEF7E86E156}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,219 +1302,222 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>151</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>155</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>159</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>162</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1471,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABF890-2F3E-4C00-9C41-86436FB38B1B}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1487,97 +1688,97 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>169</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>170</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>171</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>172</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>174</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>175</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>176</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>177</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>178</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>179</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>180</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Excel-Output-Data/Output Data.xlsx
+++ b/Excel-Output-Data/Output Data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="339">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -868,6 +868,192 @@
   </si>
   <si>
     <t>Surgery : Hair Transplant</t>
+  </si>
+  <si>
+    <t>Dr. Pramod</t>
+  </si>
+  <si>
+    <t>Koramangala,Bangalore  Dental de Care + 1 more</t>
+  </si>
+  <si>
+    <t>98% 202 Patient Stories</t>
+  </si>
+  <si>
+    <t>98% 285 Patient Stories</t>
+  </si>
+  <si>
+    <t>99% 254 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. T. Ramakrishna</t>
+  </si>
+  <si>
+    <t>Bellandur,Bangalore  Dental Profiles + 2 more</t>
+  </si>
+  <si>
+    <t>95% 390 Patient Stories</t>
+  </si>
+  <si>
+    <t>99% 129 Patient Stories</t>
+  </si>
+  <si>
+    <t>Tilak Nagar,Mumbai  Ojas Herbal Ayurveda &amp; Panchakarma Center + 1 more</t>
+  </si>
+  <si>
+    <t>Dr. Shrikant Bhoyar</t>
+  </si>
+  <si>
+    <t>39 years experience overall</t>
+  </si>
+  <si>
+    <t>Borivali West,Mumbai  Apex Superspeciality Hospitals + 1 more</t>
+  </si>
+  <si>
+    <t>95% 112 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Gaurav Mishra</t>
+  </si>
+  <si>
+    <t>Mahim,Mumbai  S L Raheja Fortis Hospital + 4 more</t>
+  </si>
+  <si>
+    <t>₹1800 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>98% 35 Patient Stories</t>
+  </si>
+  <si>
+    <t>Chembur,Mumbai  Apollo Spectra Hospitals + 6 more</t>
+  </si>
+  <si>
+    <t>Dr. Namita Pandey</t>
+  </si>
+  <si>
+    <t>Special Interest in Surgical Oncology</t>
+  </si>
+  <si>
+    <t>Powai,Mumbai  Dr L H Hiranandani Hospital</t>
+  </si>
+  <si>
+    <t>98% 106 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. R K Deshpande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemps Corner,Mumbai </t>
+  </si>
+  <si>
+    <t>Asian Cancer Institute + 1 more</t>
+  </si>
+  <si>
+    <t>₹4000 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>98% 68 Patient Stories</t>
+  </si>
+  <si>
+    <t>Chembur,Mumbai  Chirayu Healthcare METRPOLIS Healthcare Ltd + 4 more</t>
+  </si>
+  <si>
+    <t>Dr. Vishal Diddi</t>
+  </si>
+  <si>
+    <t>Andheri West,Mumbai  Kulkarni Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>100% 37 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Bhaskar Pai.K</t>
+  </si>
+  <si>
+    <t>Seshadripuram,Bangalore  Apollo Hospitals</t>
+  </si>
+  <si>
+    <t>89% 18 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Prakash Mahadevappa</t>
+  </si>
+  <si>
+    <t>Whitefield,Bangalore  Manipal Hospital Varthur Road</t>
+  </si>
+  <si>
+    <t>₹850 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>78% 21 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. T. Manohar</t>
+  </si>
+  <si>
+    <t>48% 14 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shashidhara G Matta</t>
+  </si>
+  <si>
+    <t>33 years experience overall</t>
+  </si>
+  <si>
+    <t>Kundalahalli,Bangalore  Apollo Medical Centre + 1 more</t>
+  </si>
+  <si>
+    <t>95% 50 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jayanti S Thumsi</t>
+  </si>
+  <si>
+    <t>95% 36 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sumit Talwar</t>
+  </si>
+  <si>
+    <t>Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 1 more</t>
+  </si>
+  <si>
+    <t>₹900 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>87% 12 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vijaya G</t>
+  </si>
+  <si>
+    <t>Yeshwanthpur,Bangalore  SPARSH Hospital + 2 more</t>
+  </si>
+  <si>
+    <t>99% 53 Patient Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koramangala 5 Block,Bangalore </t>
+  </si>
+  <si>
+    <t>Apollo Spectra Hospitals + 2 more</t>
+  </si>
+  <si>
+    <t>Nakshatra Multispeciality Hospital</t>
+  </si>
+  <si>
+    <t>8 - 12 years experience</t>
+  </si>
+  <si>
+    <t>Andheri West</t>
+  </si>
+  <si>
+    <t>₹800 - ₹1000Consultation Fees</t>
+  </si>
+  <si>
+    <t>67%3 Patient Stories</t>
+  </si>
+  <si>
+    <t>96% 536 Patient Stories</t>
   </si>
 </sst>
 </file>
@@ -1302,202 +1488,199 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>18</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>25</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>29</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>37</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>44</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>47</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
